--- a/data2.xlsx
+++ b/data2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="257">
   <si>
     <t xml:space="preserve">phrase</t>
   </si>
@@ -37,74 +37,772 @@
     <t xml:space="preserve">topics4</t>
   </si>
   <si>
-    <t xml:space="preserve">Я отправила перевод со сбербанка на свой счет в альфабанке он нашел не тому человеку что мне делать </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вместо консультации на оператора </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какую сумму я могу снять без комиссии в банкоматах </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лимиты (_Local_Limits) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">УВ Лимит (UV_Limit) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какую сумму я могу снять без комиссии в банкоматах с дебетовой карты </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лимит карты (_General_CARD_LIMIT_UKD) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дебетовая карта (_Local_Debit_Card) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Купить билеты за мили </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличными оплатить можно без комиссии в офис банке </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хочу узнать комиссию при оплате qr коду </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_General Платеж по QR (_General_Payment_QR) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вопрос по поводу кэшбек по тысячи рублей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кэшбэк (_Local_Cashback) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отменить комиссия за снятие наличных по кредитной карте </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комиссия (_Local_Commission) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комиссия за ведение валютного счета </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добавить карту в приложение/ привязать карту в приложение </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добавить карту в телефон </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бесконтактная оплата (_General_Pay) </t>
+    <t xml:space="preserve"> перезвоните мне/заказать обратный звонок/пусть он мне перезвонит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Без вопроса (_General_Whithout_Question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меня просили перезвонить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо консультации на оператора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредитная и дебетовая карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по обеим, обе (_Local_Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мошенники взломали госуслуги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Войти в карту/войти в счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет доступа (_Local_No_Access)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">активировать номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_Подтверждение сим-карты (_General_Sim_Confirmation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">восстановить номер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смена номера телефона (_General_Change_phone)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привязать номер (_Local_Bind_Number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не могу зайти в приложение пишет номер телефона не зарегистрирован</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> банк украл деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Странные операции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">приложение пишет что я сменил номер семь/не могу сделать перевод пишет что из-за смена номера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">банкомат взял купюры и положил ее на карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выписка (_General_BankStatement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Движение денежных средств (_Local_Transactions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Через банкомат пополнял стороннюю карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не пришли деньги по СБП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с переводом (_Local_Cant_Transfer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у меня нет  карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без вопроса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">можно ли с кредитной карты оплатить обучение в университете /садик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">можно связаться с верой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оператор (Operator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Оператор (_General_Operator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на горячую линию домклик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Оформление Ипотеки (_General_Reg_Mortage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заблокирован перевод/Перевела деньги заблокировали/ разблокировать перевод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">персональный менеджер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">войти в программу долями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_Podeli (_General_Подели) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">почему поставили ограничения на переводы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">апельсиновая карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_Банк X5 (_General_X5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по изготовлению карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Получение карты (UV_TakeCard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потерял симку/номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разблокировать карту (_General_UnBlock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключить карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Карта (UV_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта (_Local_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">справки и выписки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет доступа к карте/счету;Восстановить доступ к карте/счету  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо консультации на оператора
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восстановить доступ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать вклад на накопительный счёт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Накопительный счет (_General_Saving)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">договор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поменять выбранные категории кэшбэка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничения на снятие наличных/денежных средств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Снятие наличных (UV_CashWithdrawal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снятие наличных (_Local_Cash_Withdrawal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер не совпадает с карточкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">телефон горячей линии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Приветствие (_General_Hello)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реквизиты банка зарплатный проект</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Номер счета УКД (_General_REKVISIT_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не могу зайти в приложение просит позвонить в банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос кодового слова (_General_Codeword_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">восстановить номер карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заблокировать карту взломали мошенники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Мошенничество_UNI (_General_Fraud_UNI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">два раза оплачен штраф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отменить платеж (_Local_Cancel_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вернуть деньги (_Local_Return_Money)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Партнеры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Терминалы партнеров (_Local_PartnerSalon_PaymentTerminal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банкоматы партнеров (_Local_ATM_Partners)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возврат денежных средств по азс заправки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Отмена платежа (_General_Cancel_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сохранение прожиточного минимума</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позовите\ Позовите кожанного мешка\ Соедините с кожанным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пополнение кредитной карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Способы погашения_пополнения (_General_Repay_credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О способах пополнения (_Local_Repay_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у меня по терминалу не проходит оплата по qr коду </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Платеж по QR (_General_Payment_QR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не проходит оплата по терминалу по карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Карта не работает (_General_Cardnotworking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">снять наличные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">переведите на</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый день позовите оператора/алло оператора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заблокировать карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потерял карту (_Local_Lost_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дебетовую хотел отключить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дебетовая карта (_Local_Debit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Награждение деньги вам и друзьям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акция (_Local_Action)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне не пришел кб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема (_Local_Some_Problems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кэшбэк (_Local_Cashback)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывести деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверил деньги не пришли/срок зачисления/когда придут деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не зачислил деньги на карту (_Local_Didnt_Money_On_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дошел (платеж) (_Local_Not_Received)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда поступят деньги (_Local_Get_Money)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус (_Local_Status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все вместе и то и другое не зачислил и не вернул карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Проблемы с банкоматами (UV_ATM_Problems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с банкоматом (_Local_ATM_Problem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банкоматы (_Local_ATM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">войти в личный кабинет по временному паролю или другим данным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Временный пароль (_Local_Temp_Password)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зайти по номеру карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получается (или дословно Можно войти) (_Local_Can_Enter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по оформлению кредита/получить кредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Заказ продуктов банка (_General_OrderCards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оформить кредит (_Local_New_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по моему кредиту/оформил кредит </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеющийся кредит (_Local_Current_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другой кредит (_Local_Other_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит наличными (Про платеж) (_Local_DIS_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит (_Local_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит/кредит на карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Кредит (UV_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Лимит (UV_Limit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимиты (_Local_Limits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узнать про оформление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новый продукт (_Local_Open)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оформить займ (_Local_New_MFO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть счет и закрыть карту (когда 2 вопроса в одном)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в АВС выбираем локал _Local_Activate с переводом Активация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В приложении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General АМ Подключение (_General_AM_Connection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение или -Онлайн (_Local_AM_Online)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение (_Local_Application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оформить карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Заказ новой карты (UV_OrderCard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перевыпустить карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действующая карта (CurrentCard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деньги отправила на  банк а деньги не пришли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обе обе и кредитную и дебетовую карту хочу закрыть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По кредитной карте вопрос о снятии наличности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да за что списали где где как бы узнать за что списали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да (Agree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Странные операции (UV_Strange_Operation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отказаться\ вопрос по закрытию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отказаться (_Local_Refuse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Про кредитную которую перевожу с кредитной на дебетовую взимается комиссия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перевод (_Local_Remittance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комиссия (_Local_Commission)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По задолженности по кредиту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я хочу с кредитной карты/дебетовой отказаться от страховки/ отказаться от страховки по карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредитная карта (именно карта) (_Local_CreditCard_Karta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процент за снятие наличных с кредитной карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Проценты по КК (_General_Percent_Credit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Невозможно перевести по номеру телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ну тарифы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия (_Local_Conditions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплатить платеж по страховке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">платеж (_Local_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не знаю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Войти в приложение / получить доступ к приложению / зарегистрироваться в приложении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплатить коммунальный платеж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Коммунальный платеж (_General_CommunalPayment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другой платеж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другой платеж (_Local_Other_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что-то безвопросное + оператор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другой кредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банк отправителя не одобрил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перевести с кредитной карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Перевод (UV_Remittance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По другим данным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой процент по займу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узнать срок возврата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вернуть деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банкомат не зачислил деньги </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отменить покупку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу войти в личный кабинет не приходит ли код доступа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не получается зайти по номеру карты и по номеру телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первое первое временный пароль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первое (_Local_First)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С банкомата не могу снять по карте наличные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не выдал деньги (_Local_Didnt_Give_Money)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пароль\нужен пароль\ войти по пароль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переводила я с другого банка себе на  банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне (переводили) (_Local_To_Me)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я случайно оплатила заказ два раза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделали новую карту прошло два дня деньги так и не приходят на счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первое/второе + понятная фраза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Локал первое/второе + тематика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да/Нет не ставим только с Вместо консультации оператора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">График работы отделения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General График работы УКД (_General_GRAFIK_OFFICE_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение (_Local_Bank_Branch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Набор цифр ( пять сорок восемьсот) \ + оператор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цифры (Numbers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма кратная 1000 (шестьсот тысяч)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Более 500 тыс. ₽ (_Local_More_500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">займы более 100 тыс (_Local_MoreNumbers )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узнать сумму для закрытия кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я не спрашиваю о комиссии за снятие или переводы я говорю о комиссии которую с меня списали просто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возникли проблемы с награждением нет кэшбэка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько потраченных денег мне связаться с оператором</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Выписка (_General_BankStatement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне пришли деньги не на тот счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Между Счетами УКД (_General_MEZHDU_SCHETAMI_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частичное погашение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частично (_Local_Partly) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страховка по кредитной карте / страховка по кредиту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Страхование (UV_Insurance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страхование (_Local_Insurance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рассказать о действующий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действующий займ (_Local_Current_MFO_2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МФО (_Local_Current_MFO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убрать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отказаться  (_Local_Refuse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отменить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отменить перевод (_Local_Cancel_Transfer_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимит внесение наличных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">узнать статус карты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Готовность карт (_General_TAKE_CARD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Готовность карт (CardReadiness) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авторизовать номер телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по карте по карте пришло сообщение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оформила зп карту </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Дебетовая карта (UV_Debitcard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарплатный (счет/ карта) _Local_Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General_ИЗК (_General_IZK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредитная  карта/  кредитная карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Кредитная карта (UV_CreditCard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредитная картаКредитка (_Local_Credit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не заходит в приложение говорит что поменялся номер телефона </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клиент банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМ Подключение (_General_AM_Connection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Онлайн (_Local_AO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заблокировали номер телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не зачислил деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Набор цифр + тематика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тематика </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Незаконно снимают комиссию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ_ Странные операции(UV_ Strange_operation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Счет кредитной карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Счет кредитной карты (_Local_CreditCard_Account)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Терминал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перевод / сделать перевод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я переводил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я (переводил) (_Local_I_Did)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расторгнуть договор по договору  банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Банк (_Local_bank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне перевели / я переводил себе на альфу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переводил/ был перевод / сделал перевод / я переводил себе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочу получить кредитную карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочу узнать о процентной ставке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,23 +833,78 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343332"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color theme="0" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.25"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -180,12 +933,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,7 +999,432 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF1A1A1A"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF343332"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>487800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="AutoShape 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="73491120"/>
+          <a:ext cx="304560" cy="487800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>312120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="AutoShape 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082960" y="74523600"/>
+          <a:ext cx="304560" cy="312120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562040" y="75701520"/>
+          <a:ext cx="304560" cy="185760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="75701520"/>
+          <a:ext cx="304560" cy="185760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>487800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082960" y="78645960"/>
+          <a:ext cx="304560" cy="487800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>312120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082960" y="75701520"/>
+          <a:ext cx="304560" cy="312120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>312120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082960" y="73491120"/>
+          <a:ext cx="304560" cy="312120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>487800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2603520" y="73491120"/>
+          <a:ext cx="304560" cy="487800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>185760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2603520" y="75701520"/>
+          <a:ext cx="304560" cy="185760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,126 +1604,2159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="8.63"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="196.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C72 E72 B82:C82 B84:C84 C141" type="list">
+      <formula1>'x:\отчетность цпк\разметка чат-бот\отчет по разметке\разметка войс-бот\физ лица\разметка локалов\[data_locals_smoke_test_1.xlsx]лист1'!#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -505,5 +3764,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>